--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2975740.455757335</v>
+        <v>2973488.376046127</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329267</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>177.2776744015462</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>68.74868616823407</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>69.91764006859086</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666771</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>130.1114205825673</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278465</v>
       </c>
       <c r="H7" t="n">
-        <v>51.06561173382014</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>256.4217010493337</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>170.7304930065922</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.98153210089475</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893713</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>185.4048731212365</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1811.579746109089</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1442.617229168677</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1084.351530561926</v>
+        <v>953.6440892486864</v>
       </c>
       <c r="E2" t="n">
-        <v>698.5632779636821</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>287.5773731740746</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,10 +4340,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410102</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2588.318918149022</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2198.17958617321</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.7237329438971</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>775.7875500159902</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1575.154327815684</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1575.154327815684</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1575.154327815684</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>1575.154327815684</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.164776917667</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y4" t="n">
-        <v>1126.372197774137</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1774.969111598457</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1406.006594658045</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1047.740896051295</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>661.9526434530503</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>250.9667386634428</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>239.9346925488433</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923658</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2161.568951662578</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2161.568951662578</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>402.9356658273861</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="F7" t="n">
-        <v>285.7963790512222</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="G7" t="n">
-        <v>118.0935424259411</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.60683175406</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473096</v>
+        <v>971.2814123723974</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490654</v>
+        <v>585.4931597741531</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>578.5476590249497</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4899,7 +4899,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364616</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>584.1404152085547</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>434.023775796219</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>286.1106822138258</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>139.2207347159155</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110231</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667013</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M12" t="n">
-        <v>691.195150674524</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5242,7 +5242,7 @@
         <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6215,25 +6215,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6309,16 +6309,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7734,19 +7734,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431577</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>101.1181252153545</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512763</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365061</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
+        <v>93403.78684820632</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820633</v>
       </c>
-      <c r="D4" t="n">
-        <v>93403.78684820638</v>
-      </c>
       <c r="E4" t="n">
+        <v>14216.75207685504</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="F4" t="n">
-        <v>14216.75207685503</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14216.75207685503</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685503</v>
-      </c>
       <c r="I4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685507</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832196.9687525514</v>
+        <v>-832196.9687525515</v>
       </c>
       <c r="C6" t="n">
-        <v>496547.776975041</v>
+        <v>496547.7769750411</v>
       </c>
       <c r="D6" t="n">
-        <v>496547.7769750414</v>
+        <v>496547.7769750411</v>
       </c>
       <c r="E6" t="n">
-        <v>245322.8660283878</v>
+        <v>245288.1281029524</v>
       </c>
       <c r="F6" t="n">
-        <v>570735.3278357438</v>
+        <v>570700.5899103081</v>
       </c>
       <c r="G6" t="n">
-        <v>570735.327835744</v>
+        <v>570700.5899103078</v>
       </c>
       <c r="H6" t="n">
-        <v>570735.3278357438</v>
+        <v>570700.589910308</v>
       </c>
       <c r="I6" t="n">
-        <v>570735.3278357435</v>
+        <v>570700.589910308</v>
       </c>
       <c r="J6" t="n">
-        <v>353204.1254384663</v>
+        <v>353169.3875130304</v>
       </c>
       <c r="K6" t="n">
-        <v>570735.3278357435</v>
+        <v>570700.5899103081</v>
       </c>
       <c r="L6" t="n">
-        <v>570735.3278357438</v>
+        <v>570700.5899103077</v>
       </c>
       <c r="M6" t="n">
-        <v>485680.2999002317</v>
+        <v>485645.5619747959</v>
       </c>
       <c r="N6" t="n">
-        <v>570735.3278357437</v>
+        <v>570700.5899103081</v>
       </c>
       <c r="O6" t="n">
-        <v>570735.3278357437</v>
+        <v>570700.5899103081</v>
       </c>
       <c r="P6" t="n">
-        <v>570735.3278357434</v>
+        <v>570700.589910308</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973561</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393351</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>233.6440512519072</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.18346650181326</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>149.6313092075783</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068129</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>164.4963438047531</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624357</v>
       </c>
       <c r="H7" t="n">
-        <v>93.68940318050065</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>150.4543446923777</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>240.1912326468613</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.04427615813347</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,22 +31835,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110982</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>754.0002396832319</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437245</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>364.3208035245826</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32707,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359099</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,22 +35483,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.575538331224</v>
       </c>
       <c r="M12" t="n">
         <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>622.6585275998987</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992801</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.3390294385611</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525766</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
